--- a/形容词介词搭配.xlsx
+++ b/形容词介词搭配.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9E6829-8C95-4642-A67A-B5524AB7721F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30C805A-E3CC-473A-B3E4-8234A9F1BCB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="173">
   <si>
     <t>缺乏</t>
   </si>
@@ -668,6 +668,18 @@
   </si>
   <si>
     <t>从……深信不疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受……尊敬的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于…深信不疑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,7 +812,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -822,6 +833,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1104,19 +1125,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="46.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" thickBot="1">
+    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1127,572 +1148,572 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" thickBot="1">
+    <row r="2" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" thickBot="1">
-      <c r="A3" s="6">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" thickBot="1">
-      <c r="A4" s="4">
-        <v>0</v>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" thickBot="1">
-      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" thickBot="1">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" thickBot="1">
-      <c r="A8" s="4">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" thickBot="1">
-      <c r="A9" s="4">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" thickBot="1">
-      <c r="A10" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
+      <c r="B10" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" thickBot="1">
-      <c r="A11" s="6">
-        <v>0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" thickBot="1">
-      <c r="A12" s="6">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" thickBot="1">
-      <c r="A13" s="6">
-        <v>0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" thickBot="1">
-      <c r="A14" s="6">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" thickBot="1">
-      <c r="A15" s="6">
-        <v>0</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" thickBot="1">
-      <c r="A16" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" thickBot="1">
-      <c r="A17" s="6">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>13</v>
+      <c r="B16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21" thickBot="1">
-      <c r="A18" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18">
         <v>1</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21" thickBot="1">
+      <c r="B18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>1</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21" thickBot="1">
-      <c r="A21" s="8">
-        <v>0</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="B20" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19">
+        <v>0</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20">
+        <v>0</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19">
+        <v>0</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19">
+        <v>0</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19">
+        <v>0</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19">
+        <v>0</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19">
+        <v>0</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20">
+        <v>0</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20">
+        <v>0</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20">
+        <v>0</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="20">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20">
+        <v>0</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8">
+        <v>0</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <v>0</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" thickBot="1">
-      <c r="A22" s="8">
-        <v>1</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" thickBot="1">
-      <c r="A23" s="8">
-        <v>0</v>
-      </c>
-      <c r="B23" s="9" t="s">
+    <row r="36" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <v>0</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" thickBot="1">
-      <c r="A24" s="8">
-        <v>0</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="37" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <v>0</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" thickBot="1">
-      <c r="A25" s="8">
-        <v>0</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="38" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8">
+        <v>0</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" thickBot="1">
-      <c r="A26" s="8">
-        <v>1</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="21" thickBot="1">
-      <c r="A27" s="8">
-        <v>0</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    <row r="39" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8">
+        <v>0</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21" thickBot="1">
-      <c r="A28" s="8">
-        <v>1</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21" thickBot="1">
-      <c r="A29" s="8">
-        <v>1</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="21" thickBot="1">
-      <c r="A30" s="8">
-        <v>0</v>
-      </c>
-      <c r="B30" s="10" t="s">
+    <row r="40" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8">
+        <v>0</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" thickBot="1">
-      <c r="A31" s="8">
-        <v>1</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="21" thickBot="1">
-      <c r="A32" s="8">
-        <v>1</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" thickBot="1">
-      <c r="A33" s="8">
-        <v>1</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21" thickBot="1">
-      <c r="A34" s="8">
-        <v>1</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21" thickBot="1">
-      <c r="A35" s="8">
-        <v>1</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21" thickBot="1">
-      <c r="A36" s="8">
-        <v>0</v>
-      </c>
-      <c r="B36" s="10" t="s">
+    <row r="41" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="8">
+        <v>0</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21" thickBot="1">
-      <c r="A37" s="8">
-        <v>0</v>
-      </c>
-      <c r="B37" s="10" t="s">
+    <row r="42" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8">
+        <v>0</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" thickBot="1">
-      <c r="A38" s="8">
-        <v>0</v>
-      </c>
-      <c r="B38" s="11" t="s">
+    <row r="43" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8">
+        <v>0</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21" thickBot="1">
-      <c r="A39" s="8">
-        <v>0</v>
-      </c>
-      <c r="B39" s="10" t="s">
+    <row r="44" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8">
+        <v>0</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21" thickBot="1">
-      <c r="A40" s="8">
-        <v>1</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="21" thickBot="1">
-      <c r="A41" s="8">
-        <v>0</v>
-      </c>
-      <c r="B41" s="10" t="s">
+    <row r="45" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8">
+        <v>0</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21" thickBot="1">
-      <c r="A42" s="8">
-        <v>1</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="21" thickBot="1">
-      <c r="A43" s="8">
-        <v>0</v>
-      </c>
-      <c r="B43" s="10" t="s">
+    <row r="46" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8">
+        <v>0</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21" thickBot="1">
-      <c r="A44" s="8">
-        <v>1</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21" thickBot="1">
-      <c r="A45" s="8">
-        <v>0</v>
-      </c>
-      <c r="B45" s="10" t="s">
+    <row r="47" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8">
+        <v>0</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21" thickBot="1">
-      <c r="A46" s="8">
-        <v>0</v>
-      </c>
-      <c r="B46" s="10" t="s">
+    <row r="48" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="8">
+        <v>0</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21" thickBot="1">
-      <c r="A47" s="8">
-        <v>1</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="21" thickBot="1">
-      <c r="A48" s="8">
-        <v>0</v>
-      </c>
-      <c r="B48" s="10" t="s">
+    <row r="49" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="8">
+        <v>0</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" thickBot="1">
-      <c r="A49" s="8">
-        <v>0</v>
-      </c>
-      <c r="B49" s="11" t="s">
+    <row r="50" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="8">
+        <v>0</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21" thickBot="1">
-      <c r="A50" s="8">
-        <v>1</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="21" thickBot="1">
+    <row r="51" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8">
         <v>0</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21" thickBot="1">
+    <row r="52" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8">
         <v>0</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21" thickBot="1">
+    <row r="53" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8">
         <v>0</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -1700,6 +1721,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1710,479 +1734,479 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E4541E-5C0C-46D6-89E9-6667B4D8AF67}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="35.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.109375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" thickBot="1">
+    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" thickBot="1">
+    <row r="2" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20" thickBot="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" thickBot="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" thickBot="1">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" thickBot="1">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" thickBot="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" thickBot="1">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" thickBot="1">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" thickBot="1">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" thickBot="1">
+    <row r="11" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" thickBot="1">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" thickBot="1">
+    <row r="13" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" thickBot="1">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" thickBot="1">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" thickBot="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" thickBot="1">
+    <row r="17" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" thickBot="1">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20" thickBot="1">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20" thickBot="1">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20" thickBot="1">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20" thickBot="1">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20" thickBot="1">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20" thickBot="1">
+    <row r="34" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20" thickBot="1">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20" thickBot="1">
+    <row r="36" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20" thickBot="1">
+    <row r="37" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20" thickBot="1">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20" thickBot="1">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20" thickBot="1">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20" thickBot="1">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20" thickBot="1">
+    <row r="42" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20" thickBot="1">
+    <row r="43" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20" thickBot="1">
+    <row r="44" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20" thickBot="1">
+    <row r="45" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20" thickBot="1">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="20" thickBot="1">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20" thickBot="1">
+    <row r="48" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="20" thickBot="1">
+    <row r="49" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="20" thickBot="1">
+    <row r="50" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="20" thickBot="1">
+    <row r="51" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="20" thickBot="1">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:3" ht="19.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="20" thickBot="1">
+    <row r="53" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>32</v>
       </c>
     </row>
